--- a/performance_results_RIDGE.xlsx
+++ b/performance_results_RIDGE.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8582663820006928</v>
+        <v>1.541264086999945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8582663820006928</v>
+        <v>9.010635003000061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8582663820006928</v>
+        <v>2.824241274839878</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.512115953361961</v>
       </c>
       <c r="F2" t="n">
-        <v>2193</v>
+        <v>938</v>
       </c>
       <c r="G2" t="n">
-        <v>2193</v>
+        <v>1773</v>
       </c>
       <c r="H2" t="n">
-        <v>2193</v>
+        <v>1453.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>204.9302320303181</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2088827019997552</v>
+        <v>0.2144755070003157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2088827019997552</v>
+        <v>1.871045629999571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2088827019997552</v>
+        <v>0.6383006765599566</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3520292457209232</v>
       </c>
       <c r="F3" t="n">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="G3" t="n">
-        <v>444</v>
+        <v>579</v>
       </c>
       <c r="H3" t="n">
-        <v>444</v>
+        <v>365.52</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>82.17426361093844</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.377961849000712</v>
+        <v>2.608638357000018</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377961849000712</v>
+        <v>14.97286220299975</v>
       </c>
       <c r="D4" t="n">
-        <v>1.377961849000712</v>
+        <v>5.707502821680027</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.239548212486365</v>
       </c>
       <c r="F4" t="n">
         <v>5001</v>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04723894100061443</v>
+        <v>0.09700924299977487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04723894100061443</v>
+        <v>0.998191840999425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04723894100061443</v>
+        <v>0.2671374504401683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1594373073039916</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>42.46</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.204651765488253</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02557460899970465</v>
+        <v>0.2299291710005491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02557460899970465</v>
+        <v>1.327438065000024</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02557460899970465</v>
+        <v>0.5168069168999501</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2602233725125528</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>18.26</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.674397128326308</v>
       </c>
     </row>
   </sheetData>

--- a/performance_results_RIDGE.xlsx
+++ b/performance_results_RIDGE.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.541264086999945</v>
+        <v>0.844796495999617</v>
       </c>
       <c r="C2" t="n">
-        <v>9.010635003000061</v>
+        <v>2.633233166998252</v>
       </c>
       <c r="D2" t="n">
-        <v>2.824241274839878</v>
+        <v>1.620477705799203</v>
       </c>
       <c r="E2" t="n">
-        <v>1.512115953361961</v>
+        <v>0.5763492694559178</v>
       </c>
       <c r="F2" t="n">
-        <v>938</v>
+        <v>1247</v>
       </c>
       <c r="G2" t="n">
-        <v>1773</v>
+        <v>1247</v>
       </c>
       <c r="H2" t="n">
-        <v>1453.4</v>
+        <v>1247</v>
       </c>
       <c r="I2" t="n">
-        <v>204.9302320303181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2144755070003157</v>
+        <v>0.1161174040025799</v>
       </c>
       <c r="C3" t="n">
-        <v>1.871045629999571</v>
+        <v>1.01275661299951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6383006765599566</v>
+        <v>0.294666281299942</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3520292457209232</v>
+        <v>0.2632839252028579</v>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G3" t="n">
-        <v>579</v>
+        <v>172</v>
       </c>
       <c r="H3" t="n">
-        <v>365.52</v>
+        <v>172</v>
       </c>
       <c r="I3" t="n">
-        <v>82.17426361093844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.608638357000018</v>
+        <v>2.308605991001969</v>
       </c>
       <c r="C4" t="n">
-        <v>14.97286220299975</v>
+        <v>7.60090985900024</v>
       </c>
       <c r="D4" t="n">
-        <v>5.707502821680027</v>
+        <v>3.647604390400738</v>
       </c>
       <c r="E4" t="n">
-        <v>3.239548212486365</v>
+        <v>1.597604349617377</v>
       </c>
       <c r="F4" t="n">
         <v>5001</v>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09700924299977487</v>
+        <v>0.03617457899963483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998191840999425</v>
+        <v>0.92331764499977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2671374504401683</v>
+        <v>0.2263416239991784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1594373073039916</v>
+        <v>0.2734291855578814</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>42.46</v>
+        <v>36</v>
       </c>
       <c r="I5" t="n">
-        <v>5.204651765488253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -611,28 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2299291710005491</v>
+        <v>0.02589744699798757</v>
       </c>
       <c r="C6" t="n">
-        <v>1.327438065000024</v>
+        <v>0.139596608998545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5168069168999501</v>
+        <v>0.05909656719959457</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2602233725125528</v>
+        <v>0.03461459465048033</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>18.26</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
-        <v>2.674397128326308</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/performance_results_RIDGE.xlsx
+++ b/performance_results_RIDGE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.844796495999617</v>
+        <v>1.386133867999888</v>
       </c>
       <c r="C2" t="n">
-        <v>2.633233166998252</v>
+        <v>2.804841408999891</v>
       </c>
       <c r="D2" t="n">
-        <v>1.620477705799203</v>
+        <v>1.904395938200105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5763492694559178</v>
+        <v>0.5058812200998485</v>
       </c>
       <c r="F2" t="n">
         <v>1247</v>
@@ -518,16 +518,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1161174040025799</v>
+        <v>0.2020021440002893</v>
       </c>
       <c r="C3" t="n">
-        <v>1.01275661299951</v>
+        <v>0.44322099800047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.294666281299942</v>
+        <v>0.2765034630003356</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2632839252028579</v>
+        <v>0.08876974333277658</v>
       </c>
       <c r="F3" t="n">
         <v>172</v>
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.308605991001969</v>
+        <v>3.365233210000042</v>
       </c>
       <c r="C4" t="n">
-        <v>7.60090985900024</v>
+        <v>7.877668645000085</v>
       </c>
       <c r="D4" t="n">
-        <v>3.647604390400738</v>
+        <v>5.402792509599931</v>
       </c>
       <c r="E4" t="n">
-        <v>1.597604349617377</v>
+        <v>2.005498069329458</v>
       </c>
       <c r="F4" t="n">
         <v>5001</v>
@@ -576,29 +576,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LBGFS</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03617457899963483</v>
+        <v>1.251847616000305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.92331764499977</v>
+        <v>3.114930417999858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2263416239991784</v>
+        <v>2.038960909600064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2734291855578814</v>
+        <v>0.6882107359138159</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>1245</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>1245</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>1245</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -607,31 +607,62 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>LBGFS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06788564399994357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1929746440000599</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1065609922001386</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0455905399503367</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>BGFS</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.02589744699798757</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.139596608998545</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05909656719959457</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03461459465048033</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B7" t="n">
+        <v>0.04124550199958321</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0989610470005573</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06088403439989633</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02190652797620546</v>
+      </c>
+      <c r="F7" t="n">
         <v>17</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>17</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>17</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
